--- a/Final Submission Sheet.xlsx
+++ b/Final Submission Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lr_billing_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LRBillingOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C2085A-E442-4324-B44E-5C92F30756FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E59E26-6238-493F-8C13-F8A5BED6CCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="0" windowWidth="28530" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -170,8 +170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -454,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,218 +516,153 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="10"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+    </row>
     <row r="34" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
     </row>
@@ -772,82 +705,56 @@
     <row r="47" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -872,19 +779,6 @@
     <row r="102" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
